--- a/Budget/owasp-summit-2017-budget with actuals v20170528.xlsx
+++ b/Budget/owasp-summit-2017-budget with actuals v20170528.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="readme1st" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="203">
   <si>
     <t>Estimated profit</t>
   </si>
@@ -628,6 +628,15 @@
   </si>
   <si>
     <t>outreach + other funded</t>
+  </si>
+  <si>
+    <t>Veracode</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Bronze+lanyard+pen</t>
   </si>
 </sst>
 </file>
@@ -1043,12 +1052,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1065,6 +1068,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2110,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2140,10 +2149,10 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="81"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="65" t="s">
@@ -2159,14 +2168,14 @@
       <c r="C3" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="88" t="s">
         <v>149</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="87" t="s">
         <v>149</v>
       </c>
       <c r="H3" s="19"/>
@@ -2183,7 +2192,7 @@
       </c>
       <c r="D4" s="23">
         <f>totals!B9</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>0</v>
@@ -2191,9 +2200,9 @@
       <c r="F4" s="25">
         <v>0</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="83">
         <f>D27-G27</f>
-        <v>1419</v>
+        <v>3762.75</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
@@ -2210,7 +2219,7 @@
         <f>C11</f>
         <v>150000</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="83">
         <f>D11</f>
         <v>50000</v>
       </c>
@@ -2229,9 +2238,9 @@
         <f>C27-F27-F5</f>
         <v>29143.399999999994</v>
       </c>
-      <c r="G6" s="87">
+      <c r="G6" s="85">
         <f>G4-G5</f>
-        <v>-48581</v>
+        <v>-46237.25</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
@@ -2296,7 +2305,7 @@
         <f>Assumptions!B6</f>
         <v>150000</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>50000</v>
       </c>
       <c r="E11" s="44" t="s">
@@ -2306,7 +2315,7 @@
         <f>Assumptions!B24</f>
         <v>24549.1</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="82">
         <f>F33+F36</f>
         <v>45975.8</v>
       </c>
@@ -2322,7 +2331,7 @@
         <f>(Assumptions!B7*Assumptions!B4)+(Assumptions!B8*Assumptions!B5)</f>
         <v>120000</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <f>tickets!C2</f>
         <v>43431.3</v>
       </c>
@@ -2333,9 +2342,9 @@
         <f>Assumptions!B29</f>
         <v>7620</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="82">
         <f>F35</f>
-        <v>46312.5</v>
+        <v>46718.75</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="32"/>
@@ -2349,9 +2358,9 @@
         <f>Assumptions!B12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <f>sponsored!C7</f>
-        <v>14500</v>
+        <v>17250</v>
       </c>
       <c r="E13" s="44" t="s">
         <v>24</v>
@@ -2373,7 +2382,7 @@
         <f>Assumptions!B13</f>
         <v>23000</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <f>sponsored!C24</f>
         <v>46400</v>
       </c>
@@ -2393,7 +2402,7 @@
       <c r="B15" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <f>funded!K27</f>
         <v>17541</v>
       </c>
@@ -2512,7 +2521,7 @@
         <f>Assumptions!B21</f>
         <v>0</v>
       </c>
-      <c r="G22" s="85">
+      <c r="G22" s="83">
         <f>300*invoiced!H1</f>
         <v>390</v>
       </c>
@@ -2531,7 +2540,7 @@
         <f>Assumptions!B31</f>
         <v>52387.5</v>
       </c>
-      <c r="G23" s="85">
+      <c r="G23" s="83">
         <f>F34</f>
         <v>53625</v>
       </c>
@@ -2549,7 +2558,7 @@
       <c r="F24" s="47">
         <v>11650</v>
       </c>
-      <c r="G24" s="85">
+      <c r="G24" s="83">
         <f>funded!I27</f>
         <v>24150</v>
       </c>
@@ -2587,9 +2596,9 @@
         <f>SUM(C11:C14)</f>
         <v>293000</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="81">
         <f>SUM(D11:D26)</f>
-        <v>171872.3</v>
+        <v>174622.3</v>
       </c>
       <c r="E27" s="55" t="s">
         <v>13</v>
@@ -2598,9 +2607,9 @@
         <f>SUM(F11:F25)</f>
         <v>113856.6</v>
       </c>
-      <c r="G27" s="86">
+      <c r="G27" s="84">
         <f>SUM(G11:G25)</f>
-        <v>170453.3</v>
+        <v>170859.55</v>
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="32"/>
@@ -2668,7 +2677,7 @@
       </c>
       <c r="C33" s="62">
         <f>sponsored!C7+sponsored!C24</f>
-        <v>60900</v>
+        <v>63650</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
@@ -2718,7 +2727,7 @@
       </c>
       <c r="F35" s="77">
         <f>catering!B8*totals!B9</f>
-        <v>46312.5</v>
+        <v>46718.75</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="32"/>
@@ -3769,7 +3778,7 @@
       </c>
       <c r="B2">
         <f>sponsored!B7+sponsored!B24</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3821,7 +3830,7 @@
       </c>
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3846,7 +3855,7 @@
       </c>
       <c r="B14">
         <f>B2+B4+B5+B6+B7+B11</f>
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4009,8 +4018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4021,7 +4030,7 @@
     <col min="4" max="16384" width="9.140625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>104</v>
       </c>
@@ -4032,7 +4041,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>94</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>93</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>153</v>
       </c>
@@ -4064,23 +4073,40 @@
       <c r="C4" s="66">
         <v>3500</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="66" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66">
+        <v>2750</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="66">
         <f>SUM(B2:B6)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="66">
         <f>SUM(C2:C6)</f>
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="66" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="66" t="s">
         <v>89</v>
       </c>
@@ -4091,7 +4117,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="66" t="s">
         <v>91</v>
       </c>
@@ -4102,7 +4128,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="66" t="s">
         <v>92</v>
       </c>
@@ -4113,7 +4139,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="66" t="s">
         <v>93</v>
       </c>
@@ -4124,7 +4150,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="66" t="s">
         <v>94</v>
       </c>
